--- a/data/wi2-i2-f1/wi2-i2-f1.xlsx
+++ b/data/wi2-i2-f1/wi2-i2-f1.xlsx
@@ -1122,11 +1122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2120786936"/>
-        <c:axId val="-2114711928"/>
+        <c:axId val="-2135907016"/>
+        <c:axId val="-2135910168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2120786936"/>
+        <c:axId val="-2135907016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114711928"/>
+        <c:crossAx val="-2135910168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114711928"/>
+        <c:axId val="-2135910168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1178,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120786936"/>
+        <c:crossAx val="-2135907016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,11 +1570,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2081153640"/>
-        <c:axId val="-2083892808"/>
+        <c:axId val="-2136543000"/>
+        <c:axId val="-2136545992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2081153640"/>
+        <c:axId val="-2136543000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1583,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083892808"/>
+        <c:crossAx val="-2136545992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1591,7 +1591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083892808"/>
+        <c:axId val="-2136545992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1625,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081153640"/>
+        <c:crossAx val="-2136543000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2314,11 +2314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2010953784"/>
-        <c:axId val="-2010952168"/>
+        <c:axId val="-2136588920"/>
+        <c:axId val="-2136592040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2010953784"/>
+        <c:axId val="-2136588920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,7 +2327,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2010952168"/>
+        <c:crossAx val="-2136592040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2335,7 +2335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2010952168"/>
+        <c:axId val="-2136592040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,7 +2370,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2010953784"/>
+        <c:crossAx val="-2136588920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2446,7 +2446,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3059,11 +3058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2009772760"/>
-        <c:axId val="-2009771464"/>
+        <c:axId val="-2132301080"/>
+        <c:axId val="-2132297944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2009772760"/>
+        <c:axId val="-2132301080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,7 +3071,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2009771464"/>
+        <c:crossAx val="-2132297944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3080,7 +3079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2009771464"/>
+        <c:axId val="-2132297944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,14 +3107,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2009772760"/>
+        <c:crossAx val="-2132301080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3165,7 +3163,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Read throughput</a:t>
+              <a:t>Write throughput</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -3820,11 +3818,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2102933144"/>
-        <c:axId val="-2117848856"/>
+        <c:axId val="-2134578392"/>
+        <c:axId val="-2134581544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102933144"/>
+        <c:axId val="-2134578392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +3831,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117848856"/>
+        <c:crossAx val="-2134581544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3841,7 +3839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117848856"/>
+        <c:axId val="-2134581544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,7 +3874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102933144"/>
+        <c:crossAx val="-2134578392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4268,11 +4266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2088624168"/>
-        <c:axId val="-2088752840"/>
+        <c:axId val="-2136113688"/>
+        <c:axId val="-2136110712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2088624168"/>
+        <c:axId val="-2136113688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4281,7 +4279,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088752840"/>
+        <c:crossAx val="-2136110712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4289,7 +4287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088752840"/>
+        <c:axId val="-2136110712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,7 +4322,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088624168"/>
+        <c:crossAx val="-2136113688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4716,11 +4714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098485528"/>
-        <c:axId val="-2098463752"/>
+        <c:axId val="-2135921880"/>
+        <c:axId val="-2135928312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098485528"/>
+        <c:axId val="-2135921880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,7 +4727,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098463752"/>
+        <c:crossAx val="-2135928312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4737,7 +4735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098463752"/>
+        <c:axId val="-2135928312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4772,7 +4770,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098485528"/>
+        <c:crossAx val="-2135921880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5164,11 +5162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2104256904"/>
-        <c:axId val="-2104167720"/>
+        <c:axId val="-2138043112"/>
+        <c:axId val="-2138046104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2104256904"/>
+        <c:axId val="-2138043112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5177,7 +5175,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104167720"/>
+        <c:crossAx val="-2138046104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5185,7 +5183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104167720"/>
+        <c:axId val="-2138046104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5220,7 +5218,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104256904"/>
+        <c:crossAx val="-2138043112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5612,11 +5610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2072710536"/>
-        <c:axId val="-2072709016"/>
+        <c:axId val="-2134656872"/>
+        <c:axId val="-2134659864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2072710536"/>
+        <c:axId val="-2134656872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5625,7 +5623,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072709016"/>
+        <c:crossAx val="-2134659864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5633,7 +5631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072709016"/>
+        <c:axId val="-2134659864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,7 +5666,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072710536"/>
+        <c:crossAx val="-2134656872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6060,11 +6058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2027402296"/>
-        <c:axId val="-2138105016"/>
+        <c:axId val="-2131252664"/>
+        <c:axId val="-2131249688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2027402296"/>
+        <c:axId val="-2131252664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6073,7 +6071,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138105016"/>
+        <c:crossAx val="-2131249688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6081,7 +6079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138105016"/>
+        <c:axId val="-2131249688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6116,7 +6114,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2027402296"/>
+        <c:crossAx val="-2131252664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6508,11 +6506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2015962568"/>
-        <c:axId val="-2015960488"/>
+        <c:axId val="-2131226408"/>
+        <c:axId val="-2131223432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2015962568"/>
+        <c:axId val="-2131226408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,7 +6519,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2015960488"/>
+        <c:crossAx val="-2131223432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6529,7 +6527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2015960488"/>
+        <c:axId val="-2131223432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6564,7 +6562,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2015962568"/>
+        <c:crossAx val="-2131226408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6956,11 +6954,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114962392"/>
-        <c:axId val="-2084308488"/>
+        <c:axId val="-2136018264"/>
+        <c:axId val="-2136015288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114962392"/>
+        <c:axId val="-2136018264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6969,7 +6967,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084308488"/>
+        <c:crossAx val="-2136015288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6977,7 +6975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084308488"/>
+        <c:axId val="-2136015288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7012,7 +7010,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114962392"/>
+        <c:crossAx val="-2136018264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7040,15 +7038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>741680</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1097280</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:colOff>1137920</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7080,10 +7078,10 @@
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7111,14 +7109,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2174240</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1386840</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7180,15 +7178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>386080</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>589280</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7215,15 +7213,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1178560</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1686560</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7250,15 +7248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1209040</xdr:colOff>
+      <xdr:colOff>223520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1137920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7284,16 +7282,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1178560</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7319,16 +7317,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2021840</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7355,15 +7353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7389,16 +7387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7432,8 +7430,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7779,7 +7777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -8080,7 +8080,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L4"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8890,7 +8890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -9189,7 +9191,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9377,7 +9379,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/wi2-i2-f1/wi2-i2-f1.xlsx
+++ b/data/wi2-i2-f1/wi2-i2-f1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="554" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23540" tabRatio="554" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="READ-same-read-write-threads" sheetId="1" r:id="rId1"/>
@@ -2446,6 +2446,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3107,6 +3108,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7149,9 +7151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8266,7 +8268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -8588,7 +8590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
